--- a/statistics/HistoricalDistanceData/historical_distance/Q23018229-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q23018229-en.xlsx
@@ -31,25 +31,25 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Decision Desk HQ</t>
+  </si>
+  <si>
     <t>The Final 15: The Latest Polls in the Swing States That Will Decide the Election</t>
   </si>
   <si>
-    <t>Decision Desk HQ</t>
+    <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>2016-11-07T15:39:00UTC</t>
   </si>
   <si>
-    <t>1-01-01T00:00:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20160320063411/http://www.decisiondeskhq.com/results/2016/primary/gop/president/alabama/</t>
+  </si>
+  <si>
     <t>https://abcnews.go.com/Politics/final-15-latest-polls-swing-states-decide-election/story?id=43277505</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20160320063411/http://www.decisiondeskhq.com/results/2016/primary/gop/president/alabama/</t>
   </si>
 </sst>
 </file>
